--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA496C4-905F-4CD0-9D79-4C034CDEADB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44636B62-95CE-4DBF-9976-7BFB98BF0EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="10" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <sheet name="Main2" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3172,7 +3171,7 @@
   <dimension ref="J2:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,29 +3260,11 @@
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
       <c r="AE7">
         <f>15*1000*24*30*AE2*AF5</f>
         <v>354240000</v>
@@ -3293,46 +3274,34 @@
       <c r="K8">
         <v>4</v>
       </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="S8" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="9" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K9">
         <v>5</v>
       </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>256</v>
+      <c r="R9" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="T9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K10">
         <v>6</v>
       </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="S10" t="s">
-        <v>5</v>
+      <c r="R10" s="29" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K11">
         <v>7</v>
       </c>
-      <c r="O11">
+      <c r="R11" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="T11" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44636B62-95CE-4DBF-9976-7BFB98BF0EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9760D-D975-494B-BF69-567E04FD5460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Program object" sheetId="6" r:id="rId8"/>
     <sheet name="Лист2" sheetId="7" r:id="rId9"/>
     <sheet name="market" sheetId="8" r:id="rId10"/>
-    <sheet name="Лист5" sheetId="11" r:id="rId11"/>
+    <sheet name="База" sheetId="11" r:id="rId11"/>
     <sheet name="Лист6" sheetId="12" r:id="rId12"/>
     <sheet name="рентабельность" sheetId="13" r:id="rId13"/>
     <sheet name="CLI" sheetId="14" r:id="rId14"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="269">
   <si>
     <t>O</t>
   </si>
@@ -827,12 +827,6 @@
   </si>
   <si>
     <t>Tr</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Коефіцієнт</t>
   </si>
   <si>
     <t>Have</t>
@@ -1088,7 +1082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1136,6 +1130,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3168,10 +3165,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DE8EE-7D5E-4C95-ABF7-9D0F3C8F0550}">
-  <dimension ref="J2:AF20"/>
+  <dimension ref="J2:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,30 +3177,12 @@
     <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="10:32" x14ac:dyDescent="0.25">
-      <c r="AD3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE3">
-        <v>5000</v>
-      </c>
-      <c r="AF3">
-        <f>AE3/450</f>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="4" spans="10:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="10:24" x14ac:dyDescent="0.25">
       <c r="L4">
         <v>1</v>
       </c>
@@ -3244,38 +3223,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="AE5" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF5">
-        <f>(2*AF3+1.6*(AE2-AF3))/AE2*0.9</f>
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="6" spans="10:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="AE7">
-        <f>15*1000*24*30*AE2*AF5</f>
-        <v>354240000</v>
-      </c>
-    </row>
-    <row r="8" spans="10:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K9">
         <v>5</v>
       </c>
@@ -3286,7 +3254,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K10">
         <v>6</v>
       </c>
@@ -3294,7 +3262,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K11">
         <v>7</v>
       </c>
@@ -3305,40 +3273,234 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:20" x14ac:dyDescent="0.25">
       <c r="K17">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>186</v>
       </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="13">
+        <v>2</v>
+      </c>
+      <c r="R22" s="13">
+        <v>3</v>
+      </c>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="13">
+        <v>9</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="13">
+        <v>1</v>
+      </c>
+      <c r="R23" s="13">
+        <v>4</v>
+      </c>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="13">
+        <v>8</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="13">
+        <v>5</v>
+      </c>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="13">
+        <v>7</v>
+      </c>
+      <c r="P25" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="30" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+    </row>
+    <row r="32" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" s="12"/>
+      <c r="P32" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+    </row>
+    <row r="33" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" s="12"/>
+      <c r="P33" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+    </row>
+    <row r="34" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" s="12"/>
+      <c r="P34" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+    </row>
+    <row r="35" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+    </row>
+    <row r="36" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3909,31 +4071,31 @@
     </row>
     <row r="2" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" t="s">
         <v>263</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>264</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>265</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O2" t="s">
         <v>267</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="N2" t="s">
-        <v>262</v>
-      </c>
-      <c r="O2" t="s">
-        <v>269</v>
       </c>
       <c r="P2" t="s">
         <v>19</v>
@@ -4319,7 +4481,7 @@
   <dimension ref="B5:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+      <selection activeCell="F6" sqref="F6:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44636B62-95CE-4DBF-9976-7BFB98BF0EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C566FAA6-C322-4B58-95D2-5365B7F1B83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -36,18 +36,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="269">
   <si>
     <t>O</t>
   </si>
@@ -827,12 +821,6 @@
   </si>
   <si>
     <t>Tr</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Коефіцієнт</t>
   </si>
   <si>
     <t>Have</t>
@@ -3168,10 +3156,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DE8EE-7D5E-4C95-ABF7-9D0F3C8F0550}">
-  <dimension ref="J2:AF20"/>
+  <dimension ref="J2:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,30 +3168,12 @@
     <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="10:32" x14ac:dyDescent="0.25">
-      <c r="AD3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE3">
-        <v>5000</v>
-      </c>
-      <c r="AF3">
-        <f>AE3/450</f>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="4" spans="10:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="10:24" x14ac:dyDescent="0.25">
       <c r="L4">
         <v>1</v>
       </c>
@@ -3244,38 +3214,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="AE5" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF5">
-        <f>(2*AF3+1.6*(AE2-AF3))/AE2*0.9</f>
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="6" spans="10:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="AE7">
-        <f>15*1000*24*30*AE2*AF5</f>
-        <v>354240000</v>
-      </c>
-    </row>
-    <row r="8" spans="10:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K9">
         <v>5</v>
       </c>
@@ -3286,7 +3245,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K10">
         <v>6</v>
       </c>
@@ -3294,7 +3253,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K11">
         <v>7</v>
       </c>
@@ -3305,39 +3264,174 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
       <c r="K17">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>186</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="R32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="P34" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="R34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3909,31 +4003,31 @@
     </row>
     <row r="2" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" t="s">
         <v>263</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>264</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>265</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O2" t="s">
         <v>267</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="N2" t="s">
-        <v>262</v>
-      </c>
-      <c r="O2" t="s">
-        <v>269</v>
       </c>
       <c r="P2" t="s">
         <v>19</v>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9760D-D975-494B-BF69-567E04FD5460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D83BA-0708-4432-AAC3-7F738D559625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,25 @@
     <sheet name="market" sheetId="8" r:id="rId10"/>
     <sheet name="База" sheetId="11" r:id="rId11"/>
     <sheet name="Лист6" sheetId="12" r:id="rId12"/>
-    <sheet name="рентабельность" sheetId="13" r:id="rId13"/>
-    <sheet name="CLI" sheetId="14" r:id="rId14"/>
-    <sheet name="ІІ" sheetId="15" r:id="rId15"/>
-    <sheet name="Лист8" sheetId="16" r:id="rId16"/>
-    <sheet name="Main2" sheetId="17" r:id="rId17"/>
+    <sheet name="Test" sheetId="18" r:id="rId13"/>
+    <sheet name="рентабельность" sheetId="13" r:id="rId14"/>
+    <sheet name="CLI" sheetId="14" r:id="rId15"/>
+    <sheet name="ІІ" sheetId="15" r:id="rId16"/>
+    <sheet name="Лист8" sheetId="16" r:id="rId17"/>
+    <sheet name="Main2" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="277">
   <si>
     <t>O</t>
   </si>
@@ -854,6 +850,30 @@
   </si>
   <si>
     <t>W9N6</t>
+  </si>
+  <si>
+    <t>Harv</t>
+  </si>
+  <si>
+    <t>HarvDange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +</t>
+  </si>
+  <si>
+    <t>W7N3</t>
+  </si>
+  <si>
+    <t>W7N4</t>
+  </si>
+  <si>
+    <t>W7N5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --</t>
   </si>
 </sst>
 </file>
@@ -1121,6 +1141,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,9 +1153,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1567,51 +1587,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="32" t="s">
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="32" t="s">
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="32" t="s">
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="32" t="s">
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="32" t="s">
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="32" t="s">
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="32" t="s">
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="34"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="37"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
@@ -3167,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DE8EE-7D5E-4C95-ABF7-9D0F3C8F0550}">
   <dimension ref="J2:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="35" t="s">
+      <c r="P32" s="32" t="s">
         <v>258</v>
       </c>
       <c r="Q32" s="11"/>
@@ -3460,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="36" t="s">
+      <c r="P33" s="33" t="s">
         <v>256</v>
       </c>
       <c r="Q33" s="11"/>
@@ -3473,7 +3493,7 @@
         <v>4</v>
       </c>
       <c r="O34" s="12"/>
-      <c r="P34" s="37" t="s">
+      <c r="P34" s="34" t="s">
         <v>257</v>
       </c>
       <c r="Q34" s="11"/>
@@ -3574,6 +3594,130 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3BB7EC-4BB0-4E7A-A186-9094F5C66836}">
+  <dimension ref="C9:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABA4565-60E4-4378-83FE-EED25C9326D0}">
   <dimension ref="E2:K6"/>
   <sheetViews>
@@ -3629,7 +3773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4CF916-9E9B-467D-9265-A2F218F285FA}">
   <dimension ref="C2:L52"/>
   <sheetViews>
@@ -3826,7 +3970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49167B47-56AF-4D2D-92B4-E9B119A484A7}">
   <dimension ref="D1:Q14"/>
   <sheetViews>
@@ -4024,7 +4168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B941D0-15D1-42B7-8073-4BCB14AB8D43}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4036,7 +4180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379635DD-7F3B-4120-8188-07CC402249DE}">
   <dimension ref="D1:S9"/>
   <sheetViews>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C566FAA6-C322-4B58-95D2-5365B7F1B83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D83BA-0708-4432-AAC3-7F738D559625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,17 @@
     <sheet name="Program object" sheetId="6" r:id="rId8"/>
     <sheet name="Лист2" sheetId="7" r:id="rId9"/>
     <sheet name="market" sheetId="8" r:id="rId10"/>
-    <sheet name="Лист5" sheetId="11" r:id="rId11"/>
+    <sheet name="База" sheetId="11" r:id="rId11"/>
     <sheet name="Лист6" sheetId="12" r:id="rId12"/>
-    <sheet name="рентабельность" sheetId="13" r:id="rId13"/>
-    <sheet name="CLI" sheetId="14" r:id="rId14"/>
-    <sheet name="ІІ" sheetId="15" r:id="rId15"/>
-    <sheet name="Лист8" sheetId="16" r:id="rId16"/>
-    <sheet name="Main2" sheetId="17" r:id="rId17"/>
+    <sheet name="Test" sheetId="18" r:id="rId13"/>
+    <sheet name="рентабельность" sheetId="13" r:id="rId14"/>
+    <sheet name="CLI" sheetId="14" r:id="rId15"/>
+    <sheet name="ІІ" sheetId="15" r:id="rId16"/>
+    <sheet name="Лист8" sheetId="16" r:id="rId17"/>
+    <sheet name="Main2" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="277">
   <si>
     <t>O</t>
   </si>
@@ -848,6 +850,30 @@
   </si>
   <si>
     <t>W9N6</t>
+  </si>
+  <si>
+    <t>Harv</t>
+  </si>
+  <si>
+    <t>HarvDange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +</t>
+  </si>
+  <si>
+    <t>W7N3</t>
+  </si>
+  <si>
+    <t>W7N4</t>
+  </si>
+  <si>
+    <t>W7N5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1115,6 +1141,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,51 +1587,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="32" t="s">
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="32" t="s">
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="32" t="s">
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="32" t="s">
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="32" t="s">
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="32" t="s">
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="32" t="s">
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="34"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="37"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
@@ -3156,10 +3185,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DE8EE-7D5E-4C95-ABF7-9D0F3C8F0550}">
-  <dimension ref="J2:X35"/>
+  <dimension ref="J2:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,12 +3318,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:20" x14ac:dyDescent="0.25">
       <c r="K17">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>186</v>
       </c>
@@ -3317,67 +3346,93 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:20" x14ac:dyDescent="0.25">
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="10:20" x14ac:dyDescent="0.25">
       <c r="M22">
         <v>2</v>
       </c>
-      <c r="Q22">
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="13">
         <v>2</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="10:20" x14ac:dyDescent="0.25">
       <c r="M23">
         <v>3</v>
       </c>
-      <c r="O23">
+      <c r="N23" s="11"/>
+      <c r="O23" s="13">
         <v>9</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
+      <c r="P23" s="11"/>
+      <c r="Q23" s="13">
+        <v>1</v>
+      </c>
+      <c r="R23" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="10:20" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>4</v>
       </c>
-      <c r="O24">
+      <c r="N24" s="11"/>
+      <c r="O24" s="13">
         <v>8</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="13">
         <v>0</v>
       </c>
-      <c r="R24">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="10:20" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>5</v>
       </c>
-      <c r="O25">
+      <c r="N25" s="11"/>
+      <c r="O25" s="13">
         <v>7</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="10:20" x14ac:dyDescent="0.25">
       <c r="M26">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="30" spans="10:20" x14ac:dyDescent="0.25">
       <c r="O30">
         <v>1</v>
       </c>
@@ -3394,45 +3449,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="10:20" x14ac:dyDescent="0.25">
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+    </row>
+    <row r="32" spans="10:20" x14ac:dyDescent="0.25">
       <c r="N32">
         <v>2</v>
       </c>
-      <c r="P32" s="28" t="s">
+      <c r="O32" s="12"/>
+      <c r="P32" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="R32" t="s">
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="33" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+    </row>
+    <row r="33" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N33">
         <v>3</v>
       </c>
-      <c r="P33" s="29" t="s">
+      <c r="O33" s="12"/>
+      <c r="P33" s="33" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="34" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+    </row>
+    <row r="34" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N34">
         <v>4</v>
       </c>
-      <c r="P34" s="30" t="s">
+      <c r="O34" s="12"/>
+      <c r="P34" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="R34" t="s">
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+    </row>
+    <row r="35" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N35">
         <v>5</v>
       </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+    </row>
+    <row r="36" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3506,6 +3594,130 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3BB7EC-4BB0-4E7A-A186-9094F5C66836}">
+  <dimension ref="C9:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABA4565-60E4-4378-83FE-EED25C9326D0}">
   <dimension ref="E2:K6"/>
   <sheetViews>
@@ -3561,7 +3773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4CF916-9E9B-467D-9265-A2F218F285FA}">
   <dimension ref="C2:L52"/>
   <sheetViews>
@@ -3758,7 +3970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49167B47-56AF-4D2D-92B4-E9B119A484A7}">
   <dimension ref="D1:Q14"/>
   <sheetViews>
@@ -3956,7 +4168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B941D0-15D1-42B7-8073-4BCB14AB8D43}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3968,7 +4180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379635DD-7F3B-4120-8188-07CC402249DE}">
   <dimension ref="D1:S9"/>
   <sheetViews>
@@ -4413,7 +4625,7 @@
   <dimension ref="B5:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+      <selection activeCell="F6" sqref="F6:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D83BA-0708-4432-AAC3-7F738D559625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307BC4F-135E-46B4-B171-A362821FB026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -33,7 +33,6 @@
     <sheet name="Main2" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3598,7 +3597,7 @@
   <dimension ref="C9:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3650,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
         <v>275</v>
@@ -3664,7 +3663,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
         <v>271</v>
